--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H2">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I2">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J2">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>33.0767079354912</v>
+        <v>0.1619216666666667</v>
       </c>
       <c r="N2">
-        <v>33.0767079354912</v>
+        <v>0.485765</v>
       </c>
       <c r="O2">
-        <v>0.3372591393908987</v>
+        <v>0.001491927061095246</v>
       </c>
       <c r="P2">
-        <v>0.3372591393908987</v>
+        <v>0.001491927061095246</v>
       </c>
       <c r="Q2">
-        <v>285.6665881589302</v>
+        <v>1.447373087953333</v>
       </c>
       <c r="R2">
-        <v>285.6665881589302</v>
+        <v>8.68423852772</v>
       </c>
       <c r="S2">
-        <v>0.1153679833353052</v>
+        <v>0.000516992739753833</v>
       </c>
       <c r="T2">
-        <v>0.1153679833353052</v>
+        <v>0.0004055245130944946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H3">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I3">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J3">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.9983449607145</v>
+        <v>41.67170066666667</v>
       </c>
       <c r="N3">
-        <v>64.9983449607145</v>
+        <v>125.015102</v>
       </c>
       <c r="O3">
-        <v>0.6627408606091013</v>
+        <v>0.3839581149720183</v>
       </c>
       <c r="P3">
-        <v>0.6627408606091013</v>
+        <v>0.3839581149720183</v>
       </c>
       <c r="Q3">
-        <v>561.3574203671358</v>
+        <v>372.4918308699494</v>
       </c>
       <c r="R3">
-        <v>561.3574203671358</v>
+        <v>2234.950985219696</v>
       </c>
       <c r="S3">
-        <v>0.2267072041411962</v>
+        <v>0.133051784491647</v>
       </c>
       <c r="T3">
-        <v>0.2267072041411962</v>
+        <v>0.1043646379792875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -658,60 +658,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.16938642283547</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H4">
-        <v>5.16938642283547</v>
+        <v>17.877448</v>
       </c>
       <c r="I4">
-        <v>0.2047497603579225</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J4">
-        <v>0.2047497603579225</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.0767079354912</v>
+        <v>66.45647566666666</v>
       </c>
       <c r="N4">
-        <v>33.0767079354912</v>
+        <v>199.369427</v>
       </c>
       <c r="O4">
-        <v>0.3372591393908987</v>
+        <v>0.612322096685338</v>
       </c>
       <c r="P4">
-        <v>0.3372591393908987</v>
+        <v>0.612322096685338</v>
       </c>
       <c r="Q4">
-        <v>170.9862849138225</v>
+        <v>594.0360939970493</v>
       </c>
       <c r="R4">
-        <v>170.9862849138225</v>
+        <v>3564.216563982296</v>
       </c>
       <c r="S4">
-        <v>0.0690537279688057</v>
+        <v>0.2121860288161597</v>
       </c>
       <c r="T4">
-        <v>0.0690537279688057</v>
+        <v>0.1664368363511232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -720,60 +720,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.16938642283547</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H5">
-        <v>5.16938642283547</v>
+        <v>17.877448</v>
       </c>
       <c r="I5">
-        <v>0.2047497603579225</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J5">
-        <v>0.2047497603579225</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>64.9983449607145</v>
+        <v>0.241794</v>
       </c>
       <c r="N5">
-        <v>64.9983449607145</v>
+        <v>0.725382</v>
       </c>
       <c r="O5">
-        <v>0.6627408606091013</v>
+        <v>0.002227861281548468</v>
       </c>
       <c r="P5">
-        <v>0.6627408606091013</v>
+        <v>0.002227861281548469</v>
       </c>
       <c r="Q5">
-        <v>336.0015619466939</v>
+        <v>2.161329830856</v>
       </c>
       <c r="R5">
-        <v>336.0015619466939</v>
+        <v>12.967978985136</v>
       </c>
       <c r="S5">
-        <v>0.1356960323891168</v>
+        <v>0.0007720136846996282</v>
       </c>
       <c r="T5">
-        <v>0.1356960323891168</v>
+        <v>0.000605560677194756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -782,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.7854578386653</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H6">
-        <v>8.7854578386653</v>
+        <v>16.146557</v>
       </c>
       <c r="I6">
-        <v>0.3479756087018694</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J6">
-        <v>0.3479756087018694</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>33.0767079354912</v>
+        <v>0.1619216666666667</v>
       </c>
       <c r="N6">
-        <v>33.0767079354912</v>
+        <v>0.485765</v>
       </c>
       <c r="O6">
-        <v>0.3372591393908987</v>
+        <v>0.001491927061095246</v>
       </c>
       <c r="P6">
-        <v>0.3372591393908987</v>
+        <v>0.001491927061095246</v>
       </c>
       <c r="Q6">
-        <v>290.5940230091039</v>
+        <v>0.8714924734561111</v>
       </c>
       <c r="R6">
-        <v>290.5940230091039</v>
+        <v>7.843432261105001</v>
       </c>
       <c r="S6">
-        <v>0.1173579543198166</v>
+        <v>0.0003112917362336962</v>
       </c>
       <c r="T6">
-        <v>0.1173579543198166</v>
+        <v>0.0003662617094776336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -844,60 +844,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.7854578386653</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H7">
-        <v>8.7854578386653</v>
+        <v>16.146557</v>
       </c>
       <c r="I7">
-        <v>0.3479756087018694</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J7">
-        <v>0.3479756087018694</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>64.9983449607145</v>
+        <v>41.67170066666667</v>
       </c>
       <c r="N7">
-        <v>64.9983449607145</v>
+        <v>125.015102</v>
       </c>
       <c r="O7">
-        <v>0.6627408606091013</v>
+        <v>0.3839581149720183</v>
       </c>
       <c r="P7">
-        <v>0.6627408606091013</v>
+        <v>0.3839581149720183</v>
       </c>
       <c r="Q7">
-        <v>571.0402192353804</v>
+        <v>224.2848300337571</v>
       </c>
       <c r="R7">
-        <v>571.0402192353804</v>
+        <v>2018.563470303814</v>
       </c>
       <c r="S7">
-        <v>0.2306176543820528</v>
+        <v>0.08011315792000791</v>
       </c>
       <c r="T7">
-        <v>0.2306176543820528</v>
+        <v>0.09426007425203696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -906,60 +906,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.65600591561371</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H8">
-        <v>2.65600591561371</v>
+        <v>16.146557</v>
       </c>
       <c r="I8">
-        <v>0.1051994434637064</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J8">
-        <v>0.1051994434637064</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.0767079354912</v>
+        <v>66.45647566666666</v>
       </c>
       <c r="N8">
-        <v>33.0767079354912</v>
+        <v>199.369427</v>
       </c>
       <c r="O8">
-        <v>0.3372591393908987</v>
+        <v>0.612322096685338</v>
       </c>
       <c r="P8">
-        <v>0.3372591393908987</v>
+        <v>0.612322096685338</v>
       </c>
       <c r="Q8">
-        <v>87.85193194569158</v>
+        <v>357.6810907903155</v>
       </c>
       <c r="R8">
-        <v>87.85193194569158</v>
+        <v>3219.129817112839</v>
       </c>
       <c r="S8">
-        <v>0.03547947376697114</v>
+        <v>0.1277614794864742</v>
       </c>
       <c r="T8">
-        <v>0.03547947376697114</v>
+        <v>0.1503224545831756</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -968,55 +968,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.382185666666667</v>
+      </c>
+      <c r="H9">
+        <v>16.146557</v>
+      </c>
+      <c r="I9">
+        <v>0.2086507741237513</v>
+      </c>
+      <c r="J9">
+        <v>0.2454957209561943</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.241794</v>
+      </c>
+      <c r="N9">
+        <v>0.725382</v>
+      </c>
+      <c r="O9">
+        <v>0.002227861281548468</v>
+      </c>
+      <c r="P9">
+        <v>0.002227861281548469</v>
+      </c>
+      <c r="Q9">
+        <v>1.301380201086</v>
+      </c>
+      <c r="R9">
+        <v>11.712421809774</v>
+      </c>
+      <c r="S9">
+        <v>0.0004648449810354205</v>
+      </c>
+      <c r="T9">
+        <v>0.0005469304115041323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.798677</v>
+      </c>
+      <c r="H10">
+        <v>26.396031</v>
+      </c>
+      <c r="I10">
+        <v>0.3410976285498224</v>
+      </c>
+      <c r="J10">
+        <v>0.4013309252695205</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1619216666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.485765</v>
+      </c>
+      <c r="O10">
+        <v>0.001491927061095246</v>
+      </c>
+      <c r="P10">
+        <v>0.001491927061095246</v>
+      </c>
+      <c r="Q10">
+        <v>1.424696444301667</v>
+      </c>
+      <c r="R10">
+        <v>12.822267998715</v>
+      </c>
+      <c r="S10">
+        <v>0.0005088927825088944</v>
+      </c>
+      <c r="T10">
+        <v>0.0005987564678639917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.798677</v>
+      </c>
+      <c r="H11">
+        <v>26.396031</v>
+      </c>
+      <c r="I11">
+        <v>0.3410976285498224</v>
+      </c>
+      <c r="J11">
+        <v>0.4013309252695205</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>41.67170066666667</v>
+      </c>
+      <c r="N11">
+        <v>125.015102</v>
+      </c>
+      <c r="O11">
+        <v>0.3839581149720183</v>
+      </c>
+      <c r="P11">
+        <v>0.3839581149720183</v>
+      </c>
+      <c r="Q11">
+        <v>366.6558342066846</v>
+      </c>
+      <c r="R11">
+        <v>3299.902507860162</v>
+      </c>
+      <c r="S11">
+        <v>0.1309672024794155</v>
+      </c>
+      <c r="T11">
+        <v>0.154094265546461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.65600591561371</v>
-      </c>
-      <c r="H9">
-        <v>2.65600591561371</v>
-      </c>
-      <c r="I9">
-        <v>0.1051994434637064</v>
-      </c>
-      <c r="J9">
-        <v>0.1051994434637064</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>64.9983449607145</v>
-      </c>
-      <c r="N9">
-        <v>64.9983449607145</v>
-      </c>
-      <c r="O9">
-        <v>0.6627408606091013</v>
-      </c>
-      <c r="P9">
-        <v>0.6627408606091013</v>
-      </c>
-      <c r="Q9">
-        <v>172.6359887207583</v>
-      </c>
-      <c r="R9">
-        <v>172.6359887207583</v>
-      </c>
-      <c r="S9">
-        <v>0.0697199696967353</v>
-      </c>
-      <c r="T9">
-        <v>0.0697199696967353</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.798677</v>
+      </c>
+      <c r="H12">
+        <v>26.396031</v>
+      </c>
+      <c r="I12">
+        <v>0.3410976285498224</v>
+      </c>
+      <c r="J12">
+        <v>0.4013309252695205</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>66.45647566666666</v>
+      </c>
+      <c r="N12">
+        <v>199.369427</v>
+      </c>
+      <c r="O12">
+        <v>0.612322096685338</v>
+      </c>
+      <c r="P12">
+        <v>0.612322096685338</v>
+      </c>
+      <c r="Q12">
+        <v>584.7290639493596</v>
+      </c>
+      <c r="R12">
+        <v>5262.561575544236</v>
+      </c>
+      <c r="S12">
+        <v>0.2088616150880239</v>
+      </c>
+      <c r="T12">
+        <v>0.2457437936256995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.798677</v>
+      </c>
+      <c r="H13">
+        <v>26.396031</v>
+      </c>
+      <c r="I13">
+        <v>0.3410976285498224</v>
+      </c>
+      <c r="J13">
+        <v>0.4013309252695205</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.241794</v>
+      </c>
+      <c r="N13">
+        <v>0.725382</v>
+      </c>
+      <c r="O13">
+        <v>0.002227861281548468</v>
+      </c>
+      <c r="P13">
+        <v>0.002227861281548469</v>
+      </c>
+      <c r="Q13">
+        <v>2.127467306538</v>
+      </c>
+      <c r="R13">
+        <v>19.147205758842</v>
+      </c>
+      <c r="S13">
+        <v>0.0007599181998741508</v>
+      </c>
+      <c r="T13">
+        <v>0.0008941096294959867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.6756</v>
+      </c>
+      <c r="H14">
+        <v>5.3512</v>
+      </c>
+      <c r="I14">
+        <v>0.1037247775941661</v>
+      </c>
+      <c r="J14">
+        <v>0.08136079425358526</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1619216666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.485765</v>
+      </c>
+      <c r="O14">
+        <v>0.001491927061095246</v>
+      </c>
+      <c r="P14">
+        <v>0.001491927061095246</v>
+      </c>
+      <c r="Q14">
+        <v>0.4332376113333333</v>
+      </c>
+      <c r="R14">
+        <v>2.599425668</v>
+      </c>
+      <c r="S14">
+        <v>0.0001547498025988223</v>
+      </c>
+      <c r="T14">
+        <v>0.0001213843706591265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.6756</v>
+      </c>
+      <c r="H15">
+        <v>5.3512</v>
+      </c>
+      <c r="I15">
+        <v>0.1037247775941661</v>
+      </c>
+      <c r="J15">
+        <v>0.08136079425358526</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>41.67170066666667</v>
+      </c>
+      <c r="N15">
+        <v>125.015102</v>
+      </c>
+      <c r="O15">
+        <v>0.3839581149720183</v>
+      </c>
+      <c r="P15">
+        <v>0.3839581149720183</v>
+      </c>
+      <c r="Q15">
+        <v>111.4968023037333</v>
+      </c>
+      <c r="R15">
+        <v>668.9808138224</v>
+      </c>
+      <c r="S15">
+        <v>0.03982597008094787</v>
+      </c>
+      <c r="T15">
+        <v>0.03123913719423281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.6756</v>
+      </c>
+      <c r="H16">
+        <v>5.3512</v>
+      </c>
+      <c r="I16">
+        <v>0.1037247775941661</v>
+      </c>
+      <c r="J16">
+        <v>0.08136079425358526</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>66.45647566666666</v>
+      </c>
+      <c r="N16">
+        <v>199.369427</v>
+      </c>
+      <c r="O16">
+        <v>0.612322096685338</v>
+      </c>
+      <c r="P16">
+        <v>0.612322096685338</v>
+      </c>
+      <c r="Q16">
+        <v>177.8109462937333</v>
+      </c>
+      <c r="R16">
+        <v>1066.8656777624</v>
+      </c>
+      <c r="S16">
+        <v>0.06351297329468018</v>
+      </c>
+      <c r="T16">
+        <v>0.04981901212533973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.6756</v>
+      </c>
+      <c r="H17">
+        <v>5.3512</v>
+      </c>
+      <c r="I17">
+        <v>0.1037247775941661</v>
+      </c>
+      <c r="J17">
+        <v>0.08136079425358526</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.241794</v>
+      </c>
+      <c r="N17">
+        <v>0.725382</v>
+      </c>
+      <c r="O17">
+        <v>0.002227861281548468</v>
+      </c>
+      <c r="P17">
+        <v>0.002227861281548469</v>
+      </c>
+      <c r="Q17">
+        <v>0.6469440264</v>
+      </c>
+      <c r="R17">
+        <v>3.8816641584</v>
+      </c>
+      <c r="S17">
+        <v>0.0002310844159392688</v>
+      </c>
+      <c r="T17">
+        <v>0.0001812605633535938</v>
       </c>
     </row>
   </sheetData>
